--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -160,18 +160,18 @@
     <t>easy</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
@@ -196,16 +196,16 @@
     <t>save</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>competition</t>
   </si>
   <si>
     <t>alert</t>
@@ -2029,25 +2029,25 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6956521739130435</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L31">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2055,25 +2055,25 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6904761904761905</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L32">
+        <v>61</v>
+      </c>
+      <c r="M32">
+        <v>65</v>
+      </c>
+      <c r="N32">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
         <v>29</v>
-      </c>
-      <c r="M32">
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <v>0.97</v>
-      </c>
-      <c r="O32">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2081,25 +2081,25 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6777777777777778</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2107,25 +2107,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6764705882352942</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2341,25 +2341,25 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5975609756097561</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L43">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2367,25 +2367,25 @@
         <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5897435897435898</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2393,25 +2393,25 @@
         <v>62</v>
       </c>
       <c r="K45">
-        <v>0.582089552238806</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2419,13 +2419,13 @@
         <v>63</v>
       </c>
       <c r="K46">
-        <v>0.5769230769230769</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="10:17">
